--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P22_trail11 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P22_trail11 Features.xlsx
@@ -5441,7 +5441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5452,29 +5452,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5495,115 +5493,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5620,72 +5608,66 @@
         <v>8.491571921736818e-09</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2.2185696313596</v>
+        <v>4.837465831149479e-08</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>5.520501719877913</v>
+        <v>7.242289281427162e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4.837465831149479e-08</v>
+        <v>-0.09004143915497761</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7.242289281427162e-07</v>
+        <v>0.2164481109502615</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.09004143915497761</v>
+        <v>0.05484385789175772</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2164481109502615</v>
+        <v>1.918444839851551</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.05484385789175772</v>
+        <v>2.340448867511604</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.955653143593764</v>
+        <v>4.914882850108111</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.340448867511604</v>
+        <v>4.878111030642608e-18</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.914882850108111</v>
+        <v>9904672817.254999</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.878111030642608e-18</v>
+        <v>1.213832779810711e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>9904672817.254999</v>
+        <v>478.5551001515516</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.213832779810711e-08</v>
+        <v>0.0001082931738173331</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>478.5551001515516</v>
+        <v>12.54293891288124</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001082931738173331</v>
+        <v>1.355948982349964</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>12.54293891288124</v>
+        <v>0.01703725785342785</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.355948982349964</v>
+        <v>5.857458080545031</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01703725785342785</v>
+        <v>0.9633768019489559</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>5.857458080545031</v>
+        <v>0.9676736385646431</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9633768019489559</v>
+        <v>251</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.9676736385646431</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>251</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>8.462301660032235</v>
       </c>
     </row>
@@ -5700,72 +5682,66 @@
         <v>7.132288143659356e-09</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1.909825778611386</v>
+        <v>3.864299937797898e-08</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>4.036778045236904</v>
+        <v>7.235433872592974e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3.864299937797898e-08</v>
+        <v>-0.08637954262486577</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>7.235433872592974e-07</v>
+        <v>0.1982505244113275</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.08637954262486577</v>
+        <v>0.04667788753285933</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1982505244113275</v>
+        <v>1.918152217131587</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.04667788753285933</v>
+        <v>2.554800408420206</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.958198465610775</v>
+        <v>5.740336101251637</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.554800408420206</v>
+        <v>2.19086605416442e-18</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.740336101251637</v>
+        <v>22889973045.54115</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.19086605416442e-18</v>
+        <v>5.245466009106661e-09</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>22889973045.54115</v>
+        <v>1147.906166425538</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>5.245466009106661e-09</v>
+        <v>3.262843661768173e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>1147.906166425538</v>
+        <v>13.1139000666742</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>3.262843661768173e-05</v>
+        <v>1.13127780160188</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>13.1139000666742</v>
+        <v>0.005611254993205951</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.13127780160188</v>
+        <v>7.406669673736739</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.005611254993205951</v>
+        <v>0.9656593799129628</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>7.406669673736739</v>
+        <v>0.8877627195825445</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9656593799129628</v>
+        <v>269</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.8877627195825445</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>269</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>12.93493556998059</v>
       </c>
     </row>
@@ -5780,72 +5756,66 @@
         <v>6.161446683067661e-09</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.635719216142284</v>
+        <v>3.165471761562938e-08</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2.865529088746747</v>
+        <v>7.229830716832771e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3.165471761562938e-08</v>
+        <v>-0.08308156807365601</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>7.229830716832771e-07</v>
+        <v>0.1851662931284739</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.08308156807365601</v>
+        <v>0.04113170607991505</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1851662931284739</v>
+        <v>1.918650181235276</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.04113170607991505</v>
+        <v>2.727338463235337</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.956924592796402</v>
+        <v>6.576421964772106</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.727338463235337</v>
+        <v>1.414695943673731e-18</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>6.576421964772106</v>
+        <v>35970384944.92646</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.414695943673731e-18</v>
+        <v>3.338935834881026e-09</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>35970384944.92646</v>
+        <v>1830.430650285873</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.338935834881026e-09</v>
+        <v>4.306246858596798e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1830.430650285873</v>
+        <v>11.89611080071792</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>4.306246858596798e-05</v>
+        <v>1.063663738038782</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>11.89611080071792</v>
+        <v>0.006094090838994837</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.063663738038782</v>
+        <v>6.94617210566439</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.006094090838994837</v>
+        <v>0.9653374403364372</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>6.94617210566439</v>
+        <v>0.7424025743319542</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9653374403364372</v>
+        <v>273</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.7424025743319542</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>273</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>11.43724779304589</v>
       </c>
     </row>
@@ -5860,72 +5830,66 @@
         <v>5.449173933593307e-09</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1.391168230950441</v>
+        <v>2.677198784680438e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1.930419351125597</v>
+        <v>7.225090772214042e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.677198784680438e-08</v>
+        <v>-0.08090881756430517</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>7.225090772214042e-07</v>
+        <v>0.1810906055934799</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.08090881756430517</v>
+        <v>0.0393024213169069</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1810906055934799</v>
+        <v>1.923923642984165</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.0393024213169069</v>
+        <v>2.885835056910518</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.956937943949402</v>
+        <v>6.545672510219733</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.885835056910518</v>
+        <v>1.234506304438166e-18</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>6.545672510219733</v>
+        <v>42007567936.71398</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.234506304438166e-18</v>
+        <v>2.869312225366786e-09</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>42007567936.71398</v>
+        <v>2178.453975642767</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.869312225366786e-09</v>
+        <v>5.81483821852451e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>2178.453975642767</v>
+        <v>11.90350907423554</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>5.81483821852451e-05</v>
+        <v>1.08668073356606</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>11.90350907423554</v>
+        <v>0.008239249435624992</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.08668073356606</v>
+        <v>6.524839620428946</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.008239249435624992</v>
+        <v>0.9653063498469688</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>6.524839620428946</v>
+        <v>0.7603263566807886</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9653063498469688</v>
+        <v>279</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.7603263566807886</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>279</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>10.44385718134574</v>
       </c>
     </row>
@@ -5940,72 +5904,66 @@
         <v>4.909973244899727e-09</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1.162301824135159</v>
+        <v>2.324183549013453e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1.11055341123229</v>
+        <v>7.220960711424286e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.324183549013453e-08</v>
+        <v>-0.07893142917031419</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>7.220960711424286e-07</v>
+        <v>0.1815626544060606</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.07893142917031419</v>
+        <v>0.03916692736961368</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1815626544060606</v>
+        <v>1.927618623152604</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03916692736961368</v>
+        <v>3.047355174709763</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.960513629084222</v>
+        <v>6.456613107663403</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>3.047355174709763</v>
+        <v>1.268797550331874e-18</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>6.456613107663403</v>
+        <v>40956544487.00824</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.268797550331874e-18</v>
+        <v>2.944918509241714e-09</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>40956544487.00824</v>
+        <v>2128.329905710386</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.944918509241714e-09</v>
+        <v>5.366361652825332e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>2128.329905710386</v>
+        <v>12.50004143381562</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>5.366361652825332e-05</v>
+        <v>1.0582699546945</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>12.50004143381562</v>
+        <v>0.008384995669841522</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.0582699546945</v>
+        <v>6.6895554179675</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.008384995669841522</v>
+        <v>0.9642336917089236</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>6.6895554179675</v>
+        <v>0.7372420294005141</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9642336917089236</v>
+        <v>279</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.7372420294005141</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>279</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>11.42313673582547</v>
       </c>
     </row>
@@ -6020,72 +5978,66 @@
         <v>4.498030728679181e-09</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.9538693535456426</v>
+        <v>2.061739649245062e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.3975037173183433</v>
+        <v>7.217311473031049e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.061739649245062e-08</v>
+        <v>-0.07642460434023755</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>7.217311473031049e-07</v>
+        <v>0.1841590108120952</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.07642460434023755</v>
+        <v>0.0397337963226977</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1841590108120952</v>
+        <v>1.923337989416745</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.0397337963226977</v>
+        <v>3.112081700419524</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.960744587495284</v>
+        <v>5.63578014994949</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>3.112081700419524</v>
+        <v>1.440212683658506e-18</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5.63578014994949</v>
+        <v>35072037733.56533</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.440212683658506e-18</v>
+        <v>3.430950187138153e-09</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>35072037733.56533</v>
+        <v>1771.530487402657</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.430950187138153e-09</v>
+        <v>3.444228046924866e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>1771.530487402657</v>
+        <v>13.50559125808283</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>3.444228046924866e-05</v>
+        <v>0.9967217034131479</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>13.50559125808283</v>
+        <v>0.006282306235595642</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>0.9967217034131479</v>
+        <v>7.322758239968275</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.006282306235595642</v>
+        <v>0.9633767975670419</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>7.322758239968275</v>
+        <v>0.7471505019827099</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9633767975670419</v>
+        <v>279</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.7471505019827099</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>279</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>13.71221400035722</v>
       </c>
     </row>
@@ -6100,72 +6052,66 @@
         <v>4.181346470265899e-09</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.7775890586817307</v>
+        <v>1.826050345707812e-08</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.189149383391225</v>
+        <v>7.214075658993253e-07</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.826050345707812e-08</v>
+        <v>-0.07271538355656423</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>7.214075658993253e-07</v>
+        <v>0.1875419921066161</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.07271538355656423</v>
+        <v>0.04044216694322576</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1875419921066161</v>
+        <v>1.923069005396628</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.04044216694322576</v>
+        <v>2.883347031853493</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.963046739385656</v>
+        <v>5.388098205712345</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.883347031853493</v>
+        <v>1.623047534228336e-18</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>5.388098205712345</v>
+        <v>30948461145.8407</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.623047534228336e-18</v>
+        <v>3.885999057026609e-09</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>30948461145.8407</v>
+        <v>1554.566690989172</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>3.885999057026609e-09</v>
+        <v>2.713892422274261e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>1554.566690989172</v>
+        <v>14.14211092285747</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>2.713892422274261e-05</v>
+        <v>0.965873297629301</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>14.14211092285747</v>
+        <v>0.005427765884058646</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>0.965873297629301</v>
+        <v>7.583478428499081</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.005427765884058646</v>
+        <v>0.9627007025399511</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>7.583478428499081</v>
+        <v>0.7472652171073219</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9627007025399511</v>
+        <v>279</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.7472652171073219</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>279</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>14.39593491267002</v>
       </c>
     </row>
@@ -6180,72 +6126,66 @@
         <v>3.935571401440687e-09</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.6484480158012876</v>
+        <v>1.622884570526279e-08</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.6222328091998168</v>
+        <v>7.211230135598282e-07</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.622884570526279e-08</v>
+        <v>-0.06737305001521218</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>7.211230135598282e-07</v>
+        <v>0.1917894419405784</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.06737305001521218</v>
+        <v>0.04130745611719519</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1917894419405784</v>
+        <v>1.924272235786654</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.04130745611719519</v>
+        <v>2.921713252307378</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.965487419419506</v>
+        <v>5.491403113694042</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.921713252307378</v>
+        <v>2.073516462548584e-18</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>5.491403113694042</v>
+        <v>23931702027.47508</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.073516462548584e-18</v>
+        <v>5.023580381164851e-09</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>23931702027.47508</v>
+        <v>1187.557540001259</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>5.023580381164851e-09</v>
+        <v>4.856292923637472e-05</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>1187.557540001259</v>
+        <v>13.36175382211238</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>4.856292923637472e-05</v>
+        <v>1.013556053628323</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>13.36175382211238</v>
+        <v>0.008670253725752893</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.013556053628323</v>
+        <v>6.871590260142611</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.008670253725752893</v>
+        <v>0.9612403183090065</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>6.871590260142611</v>
+        <v>0.7425376599035826</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9612403183090065</v>
+        <v>275</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.7425376599035826</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>275</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>11.69976148594254</v>
       </c>
     </row>
@@ -6260,72 +6200,66 @@
         <v>3.73864861421835e-09</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.5742632080601834</v>
+        <v>1.450710192554301e-08</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.8997606730416838</v>
+        <v>7.20877929532829e-07</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.450710192554301e-08</v>
+        <v>-0.06004040281996165</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>7.20877929532829e-07</v>
+        <v>0.1981867763322421</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.06004040281996165</v>
+        <v>0.04286709461818859</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1981867763322421</v>
+        <v>1.9254451558662</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.04286709461818859</v>
+        <v>2.631821048712072</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.966842855705015</v>
+        <v>5.581750770710974</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.631821048712072</v>
+        <v>2.782020758616915e-18</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>5.581750770710974</v>
+        <v>17156126865.75377</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.782020758616915e-18</v>
+        <v>6.991235500184393e-09</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>17156126865.75377</v>
+        <v>818.8396508316749</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>6.991235500184393e-09</v>
+        <v>8.754546120811879e-05</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>818.8396508316749</v>
+        <v>13.35864874050198</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>8.754546120811879e-05</v>
+        <v>1.023829516274122</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>13.35864874050198</v>
+        <v>0.01562279362658908</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.023829516274122</v>
+        <v>5.832823927915044</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01562279362658908</v>
+        <v>0.9608238935588739</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>5.832823927915044</v>
+        <v>0.7307221651166197</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9608238935588739</v>
+        <v>261</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.7307221651166197</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>261</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>8.788657579213632</v>
       </c>
     </row>
@@ -6340,72 +6274,66 @@
         <v>3.57415367604548e-09</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.5522775494191791</v>
+        <v>1.298543667789034e-08</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.029863730401871</v>
+        <v>7.20675637705009e-07</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.298543667789034e-08</v>
+        <v>-0.05016491987249237</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>7.20675637705009e-07</v>
+        <v>0.2079490039922954</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.05016491987249237</v>
+        <v>0.04573897591648372</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.2079490039922954</v>
+        <v>1.925443546078198</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.04573897591648372</v>
+        <v>2.738580307891676</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.968095733729988</v>
+        <v>5.150263331351027</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.738580307891676</v>
+        <v>3.2677015068112e-18</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>5.150263331351027</v>
+        <v>14642210150.45168</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3.2677015068112e-18</v>
+        <v>8.199191630843228e-09</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>14642210150.45168</v>
+        <v>700.5766362744209</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>8.199191630843228e-09</v>
+        <v>0.0001176684010615626</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>700.5766362744209</v>
+        <v>14.09177123156151</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001176684010615626</v>
+        <v>0.9728908158011654</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>14.09177123156151</v>
+        <v>0.02336635768078505</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>0.9728908158011654</v>
+        <v>5.086759987300095</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.02336635768078505</v>
+        <v>0.9614939629965836</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>5.086759987300095</v>
+        <v>0.7607994247683767</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9614939629965836</v>
+        <v>237</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.7607994247683767</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>237</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>7.266657013494942</v>
       </c>
     </row>
@@ -6420,72 +6348,66 @@
         <v>3.436371334175462e-09</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.5662770225974111</v>
+        <v>1.160395572053374e-08</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.028158160263322</v>
+        <v>7.205207445065909e-07</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.160395572053374e-08</v>
+        <v>-0.03772969021264327</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>7.205207445065909e-07</v>
+        <v>0.2213605081331385</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.03772969021264327</v>
+        <v>0.05039655757259552</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.2213605081331385</v>
+        <v>1.923775189981453</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.05039655757259552</v>
+        <v>2.901501019269583</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.967017207868988</v>
+        <v>4.983782374834508</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.901501019269583</v>
+        <v>3.489659944766333e-18</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.983782374834508</v>
+        <v>13781548709.66281</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>3.489659944766333e-18</v>
+        <v>8.694835058194194e-09</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>13781548709.66281</v>
+        <v>662.7948990210275</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>8.694835058194194e-09</v>
+        <v>0.0001299285529712787</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>662.7948990210275</v>
+        <v>14.19254708539737</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001299285529712787</v>
+        <v>0.960514890240262</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>14.19254708539737</v>
+        <v>0.02617129960009515</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>0.960514890240262</v>
+        <v>4.732290057971355</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.02617129960009515</v>
+        <v>0.9621751268004449</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>4.732290057971355</v>
+        <v>0.8189975102598456</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9621751268004449</v>
+        <v>194</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.8189975102598456</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>194</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>6.507014931662429</v>
       </c>
     </row>
@@ -6500,72 +6422,66 @@
         <v>3.330538562721549e-09</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.5875418476917678</v>
+        <v>1.082682000029938e-08</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.9501562377526236</v>
+        <v>7.20418107402738e-07</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.082682000029938e-08</v>
+        <v>-0.02234386429539961</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>7.20418107402738e-07</v>
+        <v>0.2396912966298103</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.02234386429539961</v>
+        <v>0.05791143154808204</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.2396912966298103</v>
+        <v>1.92193114026052</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.05791143154808204</v>
+        <v>2.74053777574872</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.966005753233286</v>
+        <v>4.965230748815761</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.74053777574872</v>
+        <v>3.956589897755358e-18</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.965230748815761</v>
+        <v>12483059801.29083</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>3.956589897755358e-18</v>
+        <v>9.585998822822271e-09</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>12483059801.29083</v>
+        <v>616.5426714712253</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>9.585998822822271e-09</v>
+        <v>0.0001202383714094344</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>616.5426714712253</v>
+        <v>13.62045402135469</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001202383714094344</v>
+        <v>0.976653783348183</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>13.62045402135469</v>
+        <v>0.02230623402314222</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>0.976653783348183</v>
+        <v>4.820116983467873</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.02230623402314222</v>
+        <v>0.9631491310667014</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>4.820116983467873</v>
+        <v>0.8539966631810039</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9631491310667014</v>
+        <v>146</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.8539966631810039</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>146</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>6.361497274775793</v>
       </c>
     </row>
@@ -6580,72 +6496,66 @@
         <v>3.274921694372717e-09</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.5925684287698343</v>
+        <v>1.082682000029938e-08</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.8969446294752941</v>
+        <v>7.203729508575789e-07</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.082682000029938e-08</v>
+        <v>-0.004854189682272533</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>7.203729508575789e-07</v>
+        <v>0.2590204654211617</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.004854189682272533</v>
+        <v>0.06707355132867807</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.2590204654211617</v>
+        <v>1.923992717981766</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.06707355132867807</v>
+        <v>2.686597484493078</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.959778421811372</v>
+        <v>5.076915967282229</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.686597484493078</v>
+        <v>3.784425499933616e-18</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>5.076915967282229</v>
+        <v>13272475076.34438</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>3.784425499933616e-18</v>
+        <v>8.99007116928135e-09</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>13272475076.34438</v>
+        <v>666.6590776341901</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>8.99007116928135e-09</v>
+        <v>0.0001288714550626993</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>666.6590776341901</v>
+        <v>11.78893175603366</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001288714550626993</v>
+        <v>1.237466773973771</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>11.78893175603366</v>
+        <v>0.0179104146058235</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.237466773973771</v>
+        <v>4.865188593615496</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.0179104146058235</v>
+        <v>0.9639359611694642</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>4.865188593615496</v>
+        <v>1.046177742143986</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9639359611694642</v>
+        <v>135</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.046177742143986</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>135</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>5.42739523593933</v>
       </c>
     </row>
@@ -6660,72 +6570,66 @@
         <v>3.293889216502813e-09</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.5982309677865163</v>
+        <v>1.082682000029938e-08</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.897159557376586</v>
+        <v>7.203850866598592e-07</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.082682000029938e-08</v>
+        <v>0.01211600599924807</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>7.203850866598592e-07</v>
+        <v>0.2705478157610864</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.01211600599924807</v>
+        <v>0.07330449813393315</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.2705478157610864</v>
+        <v>1.933874820698733</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.07330449813393315</v>
+        <v>2.761051382533283</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.96590293646981</v>
+        <v>5.042196663893968</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.761051382533283</v>
+        <v>3.836722145303789e-18</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>5.042196663893968</v>
+        <v>13518573822.85135</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>3.836722145303789e-18</v>
+        <v>8.947988693184933e-09</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>13518573822.85135</v>
+        <v>701.1680247318083</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>8.947988693184933e-09</v>
+        <v>0.0001686601368985588</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>701.1680247318083</v>
+        <v>10.92748794522824</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001686601368985588</v>
+        <v>1.518550606212711</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>10.92748794522824</v>
+        <v>0.02013970573154159</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.518550606212711</v>
+        <v>4.304586995876845</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.02013970573154159</v>
+        <v>0.9639541308988082</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>4.304586995876845</v>
+        <v>1.064151380437365</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9639541308988082</v>
+        <v>138</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.064151380437365</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>138</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>3.588978282631867</v>
       </c>
     </row>
@@ -6740,72 +6644,66 @@
         <v>3.406020270239006e-09</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.6506195075975074</v>
+        <v>1.310518638728622e-08</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.8064644795349833</v>
+        <v>7.204525206375942e-07</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.310518638728622e-08</v>
+        <v>0.02803423503582201</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>7.204525206375942e-07</v>
+        <v>0.2741701084612576</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.02803423503582201</v>
+        <v>0.07591408444457816</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.2741701084612576</v>
+        <v>1.931184435898314</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.07591408444457816</v>
+        <v>2.877873629463244</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.965649698751546</v>
+        <v>5.21554282012007</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.877873629463244</v>
+        <v>3.585922337553149e-18</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>5.21554282012007</v>
+        <v>14908017901.00731</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>3.585922337553149e-18</v>
+        <v>8.09393760151463e-09</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>14908017901.00731</v>
+        <v>796.9676454830272</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>8.09393760151463e-09</v>
+        <v>0.0001204601673110089</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>796.9676454830272</v>
+        <v>11.32356095921731</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001204601673110089</v>
+        <v>1.285926222011754</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>11.32356095921731</v>
+        <v>0.0154457679838649</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.285926222011754</v>
+        <v>4.151624555315764</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.0154457679838649</v>
+        <v>0.9628813602315226</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>4.151624555315764</v>
+        <v>1.122059740257857</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9628813602315226</v>
+        <v>100</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.122059740257857</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>2.573231987897243</v>
       </c>
     </row>
@@ -6820,72 +6718,66 @@
         <v>3.630767183342009e-09</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.7934906386598585</v>
+        <v>1.591331880914935e-08</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.3844394155527349</v>
+        <v>7.20577238776877e-07</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.591331880914935e-08</v>
+        <v>0.04275225662239784</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>7.20577238776877e-07</v>
+        <v>0.2725183398937921</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.04275225662239784</v>
+        <v>0.07604470518063165</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.2725183398937921</v>
+        <v>1.924061014954372</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.07604470518063165</v>
+        <v>2.77347858188033</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.957207598408285</v>
+        <v>5.224990130683657</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.77347858188033</v>
+        <v>3.839932762560226e-18</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>5.224990130683657</v>
+        <v>13689236803.86484</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>3.839932762560226e-18</v>
+        <v>8.805913103059463e-09</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>13689236803.86484</v>
+        <v>719.5849844318235</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>8.805913103059463e-09</v>
+        <v>9.718451257192155e-05</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>719.5849844318235</v>
+        <v>9.925559276987977</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>9.718451257192155e-05</v>
+        <v>1.234089762685125</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.925559276987977</v>
+        <v>0.00957430008988607</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.234089762685125</v>
+        <v>3.836501896018818</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.00957430008988607</v>
+        <v>0.962778131012881</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.836501896018818</v>
+        <v>1.136347263545392</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.962778131012881</v>
+        <v>68</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.136347263545392</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>1.897833561612299</v>
       </c>
     </row>
@@ -6900,72 +6792,66 @@
         <v>3.995190485941341e-09</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1.047295561273689</v>
+        <v>1.931989281298383e-08</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.5534521614123844</v>
+        <v>7.207655823217208e-07</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.931989281298383e-08</v>
+        <v>0.05587826918110025</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>7.207655823217208e-07</v>
+        <v>0.2672322926421684</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.05587826918110025</v>
+        <v>0.07447979078093279</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.2672322926421684</v>
+        <v>1.923238903969626</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.07447979078093279</v>
+        <v>2.726719304560944</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.952709489052112</v>
+        <v>5.017133450555272</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2.726719304560944</v>
+        <v>4.179928665968707e-18</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>5.017133450555272</v>
+        <v>12179893179.247</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>4.179928665968707e-18</v>
+        <v>9.896242023349268e-09</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>12179893179.247</v>
+        <v>620.091572656764</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>9.896242023349268e-09</v>
+        <v>0.0001023431024478715</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>620.091572656764</v>
+        <v>7.88408580014157</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001023431024478715</v>
+        <v>1.245229055890248</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>7.88408580014157</v>
+        <v>0.006361525347699118</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.245229055890248</v>
+        <v>3.701932036705776</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.006361525347699118</v>
+        <v>0.9614921986190452</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.701932036705776</v>
+        <v>1.167413259171711</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9614921986190452</v>
+        <v>50</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.167413259171711</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>1.424801444749717</v>
       </c>
     </row>
@@ -6980,72 +6866,66 @@
         <v>4.516750410877496e-09</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>1.365565367640616</v>
+        <v>2.281282638909555e-08</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>1.835764406811737</v>
+        <v>7.210239726486814e-07</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>2.281282638909555e-08</v>
+        <v>0.06468519898988266</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>7.210239726486814e-07</v>
+        <v>0.2525322786856929</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.06468519898988266</v>
+        <v>0.06792533270555876</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.2525322786856929</v>
+        <v>1.908196934486169</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.06792533270555876</v>
+        <v>2.211173413190141</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.921790166608857</v>
+        <v>6.127046924499389</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>2.211173413190141</v>
+        <v>9.979105542285235e-18</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>6.127046924499389</v>
+        <v>5067521181.910111</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>9.979105542285235e-18</v>
+        <v>2.374361323878129e-08</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>5067521181.910111</v>
+        <v>256.2611444032735</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>2.374361323878129e-08</v>
+        <v>0.0001156645731116211</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>256.2611444032735</v>
+        <v>8.068273622917575</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001156645731116211</v>
+        <v>1.522606988385733</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.068273622917575</v>
+        <v>0.007529421256175289</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.522606988385733</v>
+        <v>3.59042320997337</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.007529421256175289</v>
+        <v>0.9617585777441786</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.59042320997337</v>
+        <v>1.371942580145844</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9617585777441786</v>
+        <v>49</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.371942580145844</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>1.509030406744822</v>
       </c>
     </row>
@@ -7060,72 +6940,66 @@
         <v>5.144620708493189e-09</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1.611023643053562</v>
+        <v>2.532459312948799e-08</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>2.729043303528611</v>
+        <v>7.213437297964816e-07</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>2.532459312948799e-08</v>
+        <v>0.06689853963336904</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>7.213437297964816e-07</v>
+        <v>0.2273680834927964</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.06689853963336904</v>
+        <v>0.05616182890252586</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.2273680834927964</v>
+        <v>1.906258513023325</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.05616182890252586</v>
+        <v>2.097084275460022</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.917893401962952</v>
+        <v>4.46040725371853</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>2.097084275460022</v>
+        <v>2.209807046482781e-17</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.46040725371853</v>
+        <v>2228646989.238183</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>2.209807046482781e-17</v>
+        <v>5.381422502236001e-08</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>2228646989.238183</v>
+        <v>109.7581858530042</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>5.381422502236001e-08</v>
+        <v>0.0001292587125560933</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>109.7581858530042</v>
+        <v>8.65929752234527</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001292587125560933</v>
+        <v>2.018032538166239</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>8.65929752234527</v>
+        <v>0.009692262087650109</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>2.018032538166239</v>
+        <v>3.645931546350358</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.009692262087650109</v>
+        <v>0.961200293435935</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.645931546350358</v>
+        <v>1.408045602550679</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.961200293435935</v>
+        <v>43</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.408045602550679</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>1.290958954778359</v>
       </c>
     </row>
@@ -7140,72 +7014,66 @@
         <v>5.797848220059268e-09</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1.720986054596276</v>
+        <v>2.69085260093483e-08</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>2.927792827471736</v>
+        <v>7.21706493768187e-07</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>2.69085260093483e-08</v>
+        <v>0.06539293660727692</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>7.21706493768187e-07</v>
+        <v>0.2026748166628925</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.06539293660727692</v>
+        <v>0.04535032283545894</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.2026748166628925</v>
+        <v>1.904404622914774</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.04535032283545894</v>
+        <v>2.094931397028956</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.909880799180729</v>
+        <v>4.036144679254894</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>2.094931397028956</v>
+        <v>2.698795205045305e-17</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.036144679254894</v>
+        <v>1822302292.122374</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>2.698795205045305e-17</v>
+        <v>6.579667711126786e-08</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>1822302292.122374</v>
+        <v>89.62120372671669</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>6.579667711126786e-08</v>
+        <v>0.0001229659518065462</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>89.62120372671669</v>
+        <v>7.728389691729465</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001229659518065462</v>
+        <v>1.486566874437481</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>7.728389691729465</v>
+        <v>0.007344511258204638</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.486566874437481</v>
+        <v>3.313342057170081</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.007344511258204638</v>
+        <v>0.9616631394971411</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.313342057170081</v>
+        <v>1.434422729344626</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9616631394971411</v>
+        <v>43</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.434422729344626</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.6720046717045483</v>
       </c>
     </row>
@@ -7220,72 +7088,66 @@
         <v>6.432416693424191e-09</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1.731580202922264</v>
+        <v>2.799222249393682e-08</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>2.692270834545976</v>
+        <v>7.220983856711923e-07</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>2.799222249393682e-08</v>
+        <v>0.06266456936726376</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>7.220983856711923e-07</v>
+        <v>0.1826013659312557</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.06266456936726376</v>
+        <v>0.03726921514766371</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1826013659312557</v>
+        <v>1.908597010097332</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.03726921514766371</v>
+        <v>2.088342381852484</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.911389369800592</v>
+        <v>3.94128449950763</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>2.088342381852484</v>
+        <v>2.830269623908143e-17</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>3.94128449950763</v>
+        <v>1766360660.724243</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>2.830269623908143e-17</v>
+        <v>6.797202389549538e-08</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>1766360660.724243</v>
+        <v>88.30526088702086</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>6.797202389549538e-08</v>
+        <v>0.0001321967297253833</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>88.30526088702086</v>
+        <v>8.810568591505945</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001321967297253833</v>
+        <v>1.233905261105397</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>8.810568591505945</v>
+        <v>0.01026191906059818</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.233905261105397</v>
+        <v>2.982338017644869</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01026191906059818</v>
+        <v>0.9622425951536407</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.982338017644869</v>
+        <v>1.426574605077803</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9622425951536407</v>
+        <v>43</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.426574605077803</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.4382890566643742</v>
       </c>
     </row>
@@ -7300,72 +7162,66 @@
         <v>7.032166589343065e-09</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>1.68624912172707</v>
+        <v>2.869199042665377e-08</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>2.274986239740334</v>
+        <v>7.225093610541429e-07</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>2.869199042665377e-08</v>
+        <v>0.05930936749387006</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>7.225093610541429e-07</v>
+        <v>0.1668179593223572</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.05930936749387006</v>
+        <v>0.03134598494029605</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1668179593223572</v>
+        <v>1.903096102097021</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.03134598494029605</v>
+        <v>2.070768008507078</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.905374199819124</v>
+        <v>3.858851703969786</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>2.070768008507078</v>
+        <v>2.952481622680208e-17</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>3.858851703969786</v>
+        <v>1752771273.883626</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>2.952481622680208e-17</v>
+        <v>6.857573946161928e-08</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>1752771273.883626</v>
+        <v>90.70635117640633</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>6.857573946161928e-08</v>
+        <v>0.0001358267108913516</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>90.70635117640633</v>
+        <v>9.00444262322949</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001358267108913516</v>
+        <v>1.255103385007239</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>9.00444262322949</v>
+        <v>0.01101282794721569</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.255103385007239</v>
+        <v>2.882272275374776</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01101282794721569</v>
+        <v>0.9627117431391127</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.882272275374776</v>
+        <v>1.421962317161366</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9627117431391127</v>
+        <v>43</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.421962317161366</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.3702324853752825</v>
       </c>
     </row>
@@ -7380,72 +7236,66 @@
         <v>7.584389036619172e-09</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1.609171280488153</v>
+        <v>2.893406035701787e-08</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>1.796361435698195</v>
+        <v>7.229293662034368e-07</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>2.893406035701787e-08</v>
+        <v>0.05556101780877674</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>7.229293662034368e-07</v>
+        <v>0.1545384776910939</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.05556101780877674</v>
+        <v>0.02696956952941936</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1545384776910939</v>
+        <v>1.897289851007378</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.02696956952941936</v>
+        <v>2.057194014683426</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.89953958849066</v>
+        <v>3.827974024609645</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2.057194014683426</v>
+        <v>3.000305075317951e-17</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.827974024609645</v>
+        <v>1727515953.774132</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>3.000305075317951e-17</v>
+        <v>6.942286580516677e-08</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>1727515953.774132</v>
+        <v>89.5384455137268</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>6.942286580516677e-08</v>
+        <v>0.0001328431557296464</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>89.5384455137268</v>
+        <v>8.568942042314104</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001328431557296464</v>
+        <v>1.265863403009426</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>8.568942042314104</v>
+        <v>0.0097542435395554</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.265863403009426</v>
+        <v>2.928489813507086</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.0097542435395554</v>
+        <v>0.9634893280963263</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.928489813507086</v>
+        <v>1.433671201913151</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9634893280963263</v>
+        <v>43</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.433671201913151</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.3935874716793287</v>
       </c>
     </row>
@@ -7460,72 +7310,66 @@
         <v>8.078239761766898e-09</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>1.514232005799201</v>
+        <v>2.893424717080502e-08</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>1.31580956840567</v>
+        <v>7.233500989081589e-07</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>2.893424717080502e-08</v>
+        <v>0.05189179272331686</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>7.233500989081589e-07</v>
+        <v>0.1452219200544476</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.05189179272331686</v>
+        <v>0.02378239097600635</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1452219200544476</v>
+        <v>1.89297522730647</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.02378239097600635</v>
+        <v>2.024895119265374</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.894771707485487</v>
+        <v>3.912725476873061</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>2.024895119265374</v>
+        <v>2.871736741012333e-17</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>3.912725476873061</v>
+        <v>1837246425.748338</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>2.871736741012333e-17</v>
+        <v>6.539130361300091e-08</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>1837246425.748338</v>
+        <v>96.93473935891672</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>6.539130361300091e-08</v>
+        <v>0.000124623176843848</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>96.93473935891672</v>
+        <v>7.218730654563858</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.000124623176843848</v>
+        <v>1.463941901565663</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>7.218730654563858</v>
+        <v>0.006494122750994988</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.463941901565663</v>
+        <v>3.192786789130596</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.006494122750994988</v>
+        <v>0.9625567476706366</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.192786789130596</v>
+        <v>1.402514384885163</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9625567476706366</v>
+        <v>43</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.402514384885163</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.4627887966455882</v>
       </c>
     </row>
@@ -7540,72 +7384,66 @@
         <v>8.508344589883227e-09</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1.41082056638465</v>
+        <v>2.893424717080502e-08</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>0.8669713578978628</v>
+        <v>7.237670651220176e-07</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>2.893424717080502e-08</v>
+        <v>0.04870467886216667</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>7.237670651220176e-07</v>
+        <v>0.1382413297237151</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.04870467886216667</v>
+        <v>0.02148274447191575</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1382413297237151</v>
+        <v>1.898137452053086</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.02148274447191575</v>
+        <v>2.078528245840515</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.898980872191645</v>
+        <v>4.052661225964123</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>2.078528245840515</v>
+        <v>2.676842249820019e-17</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>4.052661225964123</v>
+        <v>2022239202.418139</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>2.676842249820019e-17</v>
+        <v>5.943863019218076e-08</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>2022239202.418139</v>
+        <v>109.4681626414682</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>5.943863019218076e-08</v>
+        <v>0.0001265379284756465</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>109.4681626414682</v>
+        <v>7.071929074954152</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001265379284756465</v>
+        <v>1.762624660040519</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>7.071929074954152</v>
+        <v>0.00632843776219257</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.762624660040519</v>
+        <v>3.265491833133903</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.00632843776219257</v>
+        <v>0.961469311690021</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>3.265491833133903</v>
+        <v>1.385116890124172</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.961469311690021</v>
+        <v>43</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.385116890124172</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.4926299941344819</v>
       </c>
     </row>
@@ -7620,72 +7458,66 @@
         <v>8.874127638927799e-09</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>1.305217426827101</v>
+        <v>2.893424717080502e-08</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>0.4664242549340987</v>
+        <v>7.241791263003429e-07</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>2.893424717080502e-08</v>
+        <v>0.04615407131576691</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>7.241791263003429e-07</v>
+        <v>0.1329648635883138</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.04615407131576691</v>
+        <v>0.01980959106421869</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1329648635883138</v>
+        <v>1.895732256536358</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.01980959106421869</v>
+        <v>2.05659827945797</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.896205028257809</v>
+        <v>4.226776662700698</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>2.05659827945797</v>
+        <v>2.460847942304446e-17</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>4.226776662700698</v>
+        <v>2180863011.276673</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>2.460847942304446e-17</v>
+        <v>5.507348278389498e-08</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>2180863011.276673</v>
+        <v>117.0419509814513</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>5.507348278389498e-08</v>
+        <v>0.000131260604893099</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>117.0419509814513</v>
+        <v>8.344719889177206</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.000131260604893099</v>
+        <v>1.209589048848692</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>8.344719889177206</v>
+        <v>0.009140246906121965</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.209589048848692</v>
+        <v>3.035595147805391</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.009140246906121965</v>
+        <v>0.9606033643149495</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>3.035595147805391</v>
+        <v>1.414227477636737</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9606033643149495</v>
+        <v>48</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.414227477636737</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.4327971817426101</v>
       </c>
     </row>
@@ -7700,72 +7532,66 @@
         <v>9.17927865714301e-09</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>1.201502905948612</v>
+        <v>2.893424717080502e-08</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>0.1193864569440519</v>
+        <v>7.245866564673209e-07</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>2.893424717080502e-08</v>
+        <v>0.04415510643644389</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>7.245866564673209e-07</v>
+        <v>0.1289289124685496</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.04415510643644389</v>
+        <v>0.01857207135603884</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1289289124685496</v>
+        <v>1.899314935364637</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.01857207135603884</v>
+        <v>2.05489961829383</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.896444195633869</v>
+        <v>4.531457943465281</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>2.05489961829383</v>
+        <v>2.141053274009487e-17</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>4.531457943465281</v>
+        <v>2445788978.805294</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>2.141053274009487e-17</v>
+        <v>4.913609510748813e-08</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>2445788978.805294</v>
+        <v>128.0753174238862</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>4.913609510748813e-08</v>
+        <v>0.0001378431749721966</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>128.0753174238862</v>
+        <v>9.173640757778601</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001378431749721966</v>
+        <v>1.209635844415472</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>9.173640757778601</v>
+        <v>0.01160028677828203</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.209635844415472</v>
+        <v>2.842046362800176</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.01160028677828203</v>
+        <v>0.9601492254820186</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.842046362800176</v>
+        <v>1.421458229886708</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9601492254820186</v>
+        <v>92</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.421458229886708</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.3830166887892396</v>
       </c>
     </row>
@@ -7780,72 +7606,66 @@
         <v>9.43040342924647e-09</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>1.101983698790069</v>
+        <v>2.893424717080502e-08</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-0.1762477965622167</v>
+        <v>7.249900808360527e-07</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>2.893424717080502e-08</v>
+        <v>0.04255560540592738</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>7.249900808360527e-07</v>
+        <v>0.1258333459532104</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.04255560540592738</v>
+        <v>0.01764485537540285</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1258333459532104</v>
+        <v>1.902887316303099</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.01764485537540285</v>
+        <v>2.179576837592143</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.902811456610104</v>
+        <v>4.549649321661906</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>2.179576837592143</v>
+        <v>2.123965872067313e-17</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.549649321661906</v>
+        <v>2456481269.8929</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>2.123965872067313e-17</v>
+        <v>4.850840822709481e-08</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>2456481269.8929</v>
+        <v>128.1664774891472</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>4.850840822709481e-08</v>
+        <v>0.0001335929710178946</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>128.1664774891472</v>
+        <v>8.766954445684895</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001335929710178946</v>
+        <v>1.20341460793075</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>8.766954445684895</v>
+        <v>0.01026788765378099</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.20341460793075</v>
+        <v>2.929242742488807</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01026788765378099</v>
+        <v>0.958844212180213</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.929242742488807</v>
+        <v>1.381986495532916</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.958844212180213</v>
+        <v>90</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.381986495532916</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.3959035931262144</v>
       </c>
     </row>
@@ -7860,72 +7680,66 @@
         <v>9.635366955920547e-09</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>1.007584850086002</v>
+        <v>2.893424717080502e-08</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-0.4263359411821752</v>
+        <v>7.253895898427603e-07</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>2.893424717080502e-08</v>
+        <v>0.04125998120102673</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>7.253895898427603e-07</v>
+        <v>0.1234370264216711</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.04125998120102673</v>
+        <v>0.01693907056878013</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1234370264216711</v>
+        <v>1.901527297041221</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.01693907056878013</v>
+        <v>2.17500675567067</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.901973695597397</v>
+        <v>4.497550959130657</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>2.17500675567067</v>
+        <v>2.173457715079898e-17</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>4.497550959130657</v>
+        <v>2298330211.398884</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>2.173457715079898e-17</v>
+        <v>5.197311367638856e-08</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>2298330211.398884</v>
+        <v>114.8090298417318</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>5.197311367638856e-08</v>
+        <v>0.0001266325927844923</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>114.8090298417318</v>
+        <v>7.806542961711941</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001266325927844923</v>
+        <v>1.242283221531019</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>7.806542961711941</v>
+        <v>0.007717257780608606</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.242283221531019</v>
+        <v>3.154886643914659</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.007717257780608606</v>
+        <v>0.9586208108680209</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.154886643914659</v>
+        <v>1.39355445680177</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9586208108680209</v>
+        <v>66</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.39355445680177</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.4646843454174368</v>
       </c>
     </row>
@@ -7940,72 +7754,66 @@
         <v>9.802377389553639e-09</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.9183303907483773</v>
+        <v>2.893424717080502e-08</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-0.637861324599645</v>
+        <v>7.257855403722077e-07</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>2.893424717080502e-08</v>
+        <v>0.04021515704520038</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>7.257855403722077e-07</v>
+        <v>0.121542077913228</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.04021515704520038</v>
+        <v>0.01638984919985728</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.121542077913228</v>
+        <v>1.903335201180667</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.01638984919985728</v>
+        <v>2.075612220641909</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.902474887120509</v>
+        <v>4.543845867809704</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>2.075612220641909</v>
+        <v>2.129394845652044e-17</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>4.543845867809704</v>
+        <v>2307174891.738782</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>2.129394845652044e-17</v>
+        <v>5.182956938919147e-08</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>2307174891.738782</v>
+        <v>113.3488796920745</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>5.182956938919147e-08</v>
+        <v>0.0001317687565939819</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>113.3488796920745</v>
+        <v>7.637581902316045</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001317687565939819</v>
+        <v>1.800132348176315</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>7.637581902316045</v>
+        <v>0.007686421723165786</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.800132348176315</v>
+        <v>3.374301920839323</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.007686421723165786</v>
+        <v>0.9589168961469269</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.374301920839323</v>
+        <v>1.403672493302999</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9589168961469269</v>
+        <v>66</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.403672493302999</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.6932171151260269</v>
       </c>
     </row>
@@ -8020,72 +7828,66 @@
         <v>9.940278963345363e-09</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.8336547648035392</v>
+        <v>2.893424717080502e-08</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.8176873567983129</v>
+        <v>7.261783302611172e-07</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>2.893424717080502e-08</v>
+        <v>0.03937644678800917</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>7.261783302611172e-07</v>
+        <v>0.1199822394861292</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.03937644678800917</v>
+        <v>0.01594643825247448</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1199822394861292</v>
+        <v>1.904143370655906</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.01594643825247448</v>
+        <v>1.976252637586683</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.904202271050112</v>
+        <v>4.771812584158384</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.976252637586683</v>
+        <v>1.93079704113803e-17</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.771812584158384</v>
+        <v>2538180726.078032</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>1.93079704113803e-17</v>
+        <v>4.714886780005869e-08</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>2538180726.078032</v>
+        <v>124.3889232565207</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>4.714886780005869e-08</v>
+        <v>0.0001325112641452051</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>124.3889232565207</v>
+        <v>9.606521219062365</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001325112641452051</v>
+        <v>1.549341862914001</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>9.606521219062365</v>
+        <v>0.01222883513048468</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.549341862914001</v>
+        <v>3.648900229182664</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.01222883513048468</v>
+        <v>0.9580303032079364</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.648900229182664</v>
+        <v>1.375822003752463</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9580303032079364</v>
+        <v>66</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.375822003752463</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>1.442665983626871</v>
       </c>
     </row>
@@ -8462,7 +8264,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.422249929900702</v>
+        <v>1.416857195617218</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.229363199081056</v>
@@ -8551,7 +8353,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.396015285271448</v>
+        <v>1.377656470099429</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.069319899401648</v>
@@ -8640,7 +8442,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.41345128541396</v>
+        <v>1.390729373203737</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.536475563190152</v>
@@ -8729,7 +8531,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.415300574952517</v>
+        <v>1.381967147370984</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.5607858526994</v>
@@ -8818,7 +8620,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.4142995582047</v>
+        <v>1.381881839532966</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.455371138673428</v>
@@ -8907,7 +8709,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.430213754999884</v>
+        <v>1.398135586804826</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.420141561729875</v>
@@ -8996,7 +8798,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.439953966683816</v>
+        <v>1.404610836814543</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.430472822763358</v>
@@ -9085,7 +8887,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.442717946840965</v>
+        <v>1.405649670657898</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.438558022969208</v>
@@ -9174,7 +8976,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.435726153800033</v>
+        <v>1.402664617144872</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.378726660453833</v>
@@ -9263,7 +9065,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.433461746107956</v>
+        <v>1.406107186683351</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.333037145217957</v>
@@ -9352,7 +9154,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.439704847251497</v>
+        <v>1.420675417249559</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.499486955091812</v>
@@ -9441,7 +9243,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.43237974121515</v>
+        <v>1.415665054358139</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.420930494676624</v>
@@ -9530,7 +9332,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.451638124407455</v>
+        <v>1.428076480362033</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.265072999358309</v>
@@ -9619,7 +9421,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.448153940555312</v>
+        <v>1.417229137899615</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.568708438443946</v>
@@ -9708,7 +9510,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.42963049955921</v>
+        <v>1.404481424446779</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.444705044026805</v>
@@ -9797,7 +9599,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.421897226689134</v>
+        <v>1.39926837059647</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.504540267956765</v>
@@ -9886,7 +9688,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.425627424448572</v>
+        <v>1.403585921648792</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.359243058414076</v>
@@ -9975,7 +9777,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.458202317556589</v>
+        <v>1.435618808129028</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.615682752164602</v>
@@ -10064,7 +9866,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.457305630341315</v>
+        <v>1.436974571282212</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.581840747117171</v>
@@ -10153,7 +9955,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.45807839678119</v>
+        <v>1.429333584857557</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.652547149387641</v>
@@ -10242,7 +10044,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.442679116334913</v>
+        <v>1.419228955622743</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.472516124610117</v>
@@ -10331,7 +10133,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.47001239531613</v>
+        <v>1.442795112684113</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.519511567436827</v>
@@ -10420,7 +10222,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.455554963210359</v>
+        <v>1.431863962361063</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.559842614480082</v>
@@ -10509,7 +10311,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.467978592649585</v>
+        <v>1.43915784886824</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.310559553694828</v>
@@ -10598,7 +10400,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.488262835358762</v>
+        <v>1.453851186211071</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.434218540960958</v>
@@ -10687,7 +10489,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.463141543707622</v>
+        <v>1.421437931325639</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.631621936633561</v>
@@ -10776,7 +10578,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.462850864486149</v>
+        <v>1.422553439385803</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.542033076637735</v>
@@ -10865,7 +10667,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.474078737398795</v>
+        <v>1.434456345976234</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.585220850550386</v>
@@ -10954,7 +10756,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.469035670508743</v>
+        <v>1.43716726867264</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.3036607315621</v>
@@ -11043,7 +10845,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.455865510798627</v>
+        <v>1.42672855982358</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.74097080096311</v>
@@ -11132,7 +10934,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.427781467878397</v>
+        <v>1.404609402862861</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.44777731405194</v>
@@ -11221,7 +11023,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.422318436152994</v>
+        <v>1.394957858430955</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.412786659632638</v>
@@ -11310,7 +11112,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.419305757217052</v>
+        <v>1.391578504039316</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.451138457313393</v>
@@ -11399,7 +11201,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.425908305945563</v>
+        <v>1.39844681124854</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.648734526625218</v>
@@ -11488,7 +11290,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.452980619724917</v>
+        <v>1.417484405680047</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.392271465250944</v>
@@ -11577,7 +11379,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.467300153285563</v>
+        <v>1.426882793330461</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.57671851181411</v>
@@ -11666,7 +11468,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.432392826921985</v>
+        <v>1.396517269110661</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.426506466742199</v>
@@ -11755,7 +11557,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.461397676325042</v>
+        <v>1.423509806621443</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.59006953088655</v>
@@ -11844,7 +11646,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.466493681194908</v>
+        <v>1.431842787692198</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.454863504629461</v>
@@ -11933,7 +11735,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.451487381451184</v>
+        <v>1.420994908422406</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.401400598604533</v>
@@ -12022,7 +11824,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.459300114224074</v>
+        <v>1.4239316794734</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.332463715116259</v>
@@ -12111,7 +11913,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.474610547995609</v>
+        <v>1.433006176031911</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.437835221737379</v>
@@ -12200,7 +12002,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.447668412540406</v>
+        <v>1.408956509317224</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.615401190902589</v>
@@ -12289,7 +12091,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.443889442531675</v>
+        <v>1.405601362484499</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.5513534508367</v>
@@ -12378,7 +12180,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.467352013372383</v>
+        <v>1.421167934166371</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.220764568624789</v>
@@ -12467,7 +12269,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.50021930722893</v>
+        <v>1.451123755101901</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.542661382951783</v>
@@ -12556,7 +12358,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.505620794362452</v>
+        <v>1.459729295236544</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.39694901013872</v>
@@ -12645,7 +12447,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.503097007695519</v>
+        <v>1.455834724501453</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.477229782210988</v>
@@ -12734,7 +12536,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.50280883972125</v>
+        <v>1.455083461505417</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.414362507364308</v>
@@ -12823,7 +12625,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.480668232733249</v>
+        <v>1.442290819704815</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.440469579031173</v>
@@ -12912,7 +12714,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.482016052088054</v>
+        <v>1.446252386502719</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.486407132214955</v>
@@ -13001,7 +12803,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.493528449670985</v>
+        <v>1.454622547660579</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.59517198170225</v>
@@ -13090,7 +12892,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.477363163875157</v>
+        <v>1.441583552586076</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.462384173860039</v>
@@ -13179,7 +12981,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.451839545854904</v>
+        <v>1.420662387581954</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.502717286559551</v>
@@ -13268,7 +13070,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.471554066664788</v>
+        <v>1.43092781626647</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.328459355824204</v>
@@ -13357,7 +13159,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.482955611065997</v>
+        <v>1.44407448280888</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.529028390039623</v>
@@ -13446,7 +13248,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.476898733764164</v>
+        <v>1.432604695499614</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.635610773273098</v>
@@ -13535,7 +13337,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.484153461637653</v>
+        <v>1.447842317969708</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.573021953848087</v>
@@ -13624,7 +13426,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.476273943634919</v>
+        <v>1.440798508070906</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.499994266238451</v>
@@ -13713,7 +13515,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.461190275286465</v>
+        <v>1.434000083317741</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.429785782471401</v>
@@ -13802,7 +13604,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.450150242167931</v>
+        <v>1.421199620696267</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.417279085302376</v>
@@ -13891,7 +13693,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.448705995367029</v>
+        <v>1.422090687402287</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.631032667815331</v>
@@ -13980,7 +13782,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.43830936307712</v>
+        <v>1.414492227401846</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.363664072524996</v>
@@ -14069,7 +13871,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.439203182660098</v>
+        <v>1.419808752153159</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.455931052227321</v>
@@ -14158,7 +13960,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.464231043965514</v>
+        <v>1.446241000923962</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.430409793074934</v>
@@ -14247,7 +14049,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.442297000224912</v>
+        <v>1.424458684516136</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.372095024474598</v>
@@ -14336,7 +14138,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.455334179838068</v>
+        <v>1.435854048881655</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.397781082544893</v>
@@ -14425,7 +14227,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.451786450646952</v>
+        <v>1.431391276121208</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.237519937736429</v>
@@ -14514,7 +14316,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.474385160888448</v>
+        <v>1.452931718574104</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.37976242190291</v>
@@ -14603,7 +14405,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.484745050926443</v>
+        <v>1.468488917610393</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.457820743965849</v>
@@ -14692,7 +14494,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.473335945004057</v>
+        <v>1.459078628744388</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.488253173247324</v>
@@ -14781,7 +14583,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.482590170007372</v>
+        <v>1.465315467101152</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.41367325404151</v>
@@ -14870,7 +14672,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.483161168067924</v>
+        <v>1.466122665783798</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.520663176047775</v>
@@ -14959,7 +14761,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.530235268712625</v>
+        <v>1.507570289235799</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.571269694695138</v>
@@ -15048,7 +14850,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.537657572072197</v>
+        <v>1.50823681737563</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.670339728648756</v>
@@ -15137,7 +14939,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.519767091994745</v>
+        <v>1.50396130837119</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.601159407056319</v>
@@ -15423,7 +15225,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.211714347004285</v>
+        <v>1.186226653154223</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.154385074005673</v>
@@ -15512,7 +15314,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.211541362670943</v>
+        <v>1.181682446064108</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.933036233614304</v>
@@ -15601,7 +15403,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.199370541452103</v>
+        <v>1.167867263242411</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.327194083946604</v>
@@ -15690,7 +15492,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.184271865197557</v>
+        <v>1.150818445714642</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.247409652181923</v>
@@ -15779,7 +15581,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.186386807029194</v>
+        <v>1.14958695173994</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.193141500921306</v>
@@ -15868,7 +15670,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.195009513351798</v>
+        <v>1.1589737063583</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.232146236527583</v>
@@ -15957,7 +15759,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.203325612558297</v>
+        <v>1.166354985798882</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.330208424522957</v>
@@ -16046,7 +15848,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.197254234385723</v>
+        <v>1.159269314356986</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.284273327532987</v>
@@ -16135,7 +15937,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.187742721347166</v>
+        <v>1.149352062533849</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.230902941018404</v>
@@ -16224,7 +16026,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.195638498923644</v>
+        <v>1.150789651833298</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.105335537218483</v>
@@ -16313,7 +16115,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.187674087167645</v>
+        <v>1.144766395936111</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.355872076726799</v>
@@ -16402,7 +16204,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.195937545576226</v>
+        <v>1.15496779845742</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.370610288587272</v>
@@ -16491,7 +16293,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.199249112022005</v>
+        <v>1.165697863781822</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.143944331783842</v>
@@ -16580,7 +16382,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.197776395493059</v>
+        <v>1.167424752396992</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.346332305858793</v>
@@ -16669,7 +16471,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.2008039009969</v>
+        <v>1.173385280541362</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.266975361648571</v>
@@ -16758,7 +16560,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.214630671246149</v>
+        <v>1.192777814278695</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.044717584044653</v>
@@ -16847,7 +16649,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.235556093429949</v>
+        <v>1.214340866148543</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.087950937278334</v>
@@ -16936,7 +16738,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.255181609423228</v>
+        <v>1.234129019828491</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.208826750821537</v>
@@ -17025,7 +16827,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.269164918738799</v>
+        <v>1.239720579019802</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.154046066948442</v>
@@ -17114,7 +16916,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.254756795640188</v>
+        <v>1.221192393049096</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.176970280304905</v>
@@ -17203,7 +17005,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.239117082079854</v>
+        <v>1.205587161797393</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.201997741926126</v>
@@ -17292,7 +17094,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.238331317657338</v>
+        <v>1.208822737142763</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.116909381154294</v>
@@ -17381,7 +17183,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.260319660155678</v>
+        <v>1.22470118937011</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.188623698589954</v>
@@ -17470,7 +17272,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.287591134505983</v>
+        <v>1.252410459465794</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.141890609841626</v>
@@ -17559,7 +17361,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.313249118987121</v>
+        <v>1.286979340556688</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.150047572907867</v>
@@ -17648,7 +17450,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.340446295094694</v>
+        <v>1.30858270704246</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.172145622356701</v>
@@ -17737,7 +17539,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.349585816574194</v>
+        <v>1.315977428650282</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.166296851294611</v>
@@ -17826,7 +17628,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.369894587250629</v>
+        <v>1.338560826183967</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.209217230661375</v>
@@ -17915,7 +17717,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.399684194077366</v>
+        <v>1.364059094342402</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.232836518528114</v>
@@ -18004,7 +17806,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.403621021834569</v>
+        <v>1.369776078959118</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.167928918151595</v>
@@ -18093,7 +17895,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.402013499819901</v>
+        <v>1.368875639853253</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.230535551704106</v>
@@ -18182,7 +17984,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.411668857055943</v>
+        <v>1.378718359870356</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.226417297822917</v>
@@ -18271,7 +18073,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.437349578820509</v>
+        <v>1.408259777049576</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.15999927814091</v>
@@ -18360,7 +18162,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.464998517931077</v>
+        <v>1.439661085700291</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.040186591620059</v>
@@ -18449,7 +18251,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.515687697409063</v>
+        <v>1.502144893044913</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.134661707618577</v>
@@ -18538,7 +18340,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.581198086995158</v>
+        <v>1.559631506620262</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.507507964406183</v>
@@ -18627,7 +18429,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.570294644060217</v>
+        <v>1.550361263420149</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.139334241370695</v>
@@ -18716,7 +18518,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.565957967321069</v>
+        <v>1.549772643310286</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.02688534880954</v>
@@ -18805,7 +18607,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.575919641132689</v>
+        <v>1.559226424344753</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.124921548779905</v>
@@ -18894,7 +18696,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.571803589804657</v>
+        <v>1.555341300363294</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.077279014768191</v>
@@ -18983,7 +18785,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.581813250093578</v>
+        <v>1.568612941762328</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.388303713667036</v>
@@ -19072,7 +18874,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.581600064072989</v>
+        <v>1.571452218473341</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.272094843756085</v>
@@ -19161,7 +18963,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.561363437144151</v>
+        <v>1.549197681526895</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.06655533944814</v>
@@ -19250,7 +19052,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.551900089867787</v>
+        <v>1.537612143222288</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.893790034950707</v>
@@ -19339,7 +19141,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.539367391995931</v>
+        <v>1.53169196819383</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.034765964095048</v>
@@ -19428,7 +19230,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.506424643254474</v>
+        <v>1.508050890832113</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.82899160677974</v>
@@ -19517,7 +19319,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.505655741680791</v>
+        <v>1.495400173135427</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.003831844028922</v>
@@ -19606,7 +19408,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.494403106012776</v>
+        <v>1.479123825670105</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.722036118917683</v>
@@ -19695,7 +19497,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.461875232893651</v>
+        <v>1.442983939690287</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.531836388136794</v>
@@ -19784,7 +19586,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.439297709769594</v>
+        <v>1.422326808861564</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.625248828407399</v>
@@ -19873,7 +19675,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.426077727708659</v>
+        <v>1.401422150533263</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.651736631902922</v>
@@ -19962,7 +19764,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.427940552388922</v>
+        <v>1.401136982838803</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.608289515958081</v>
@@ -20051,7 +19853,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.436749739543689</v>
+        <v>1.413536908360744</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.71603003181506</v>
@@ -20140,7 +19942,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.43339291899408</v>
+        <v>1.406949894709654</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.628065161687299</v>
@@ -20229,7 +20031,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.408835764014534</v>
+        <v>1.386173427736289</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.617393329375384</v>
@@ -20318,7 +20120,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.409051596470883</v>
+        <v>1.387547441790141</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.445474615581306</v>
@@ -20407,7 +20209,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.37991882022054</v>
+        <v>1.349135665886039</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.242343260658515</v>
@@ -20496,7 +20298,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.369029382914089</v>
+        <v>1.345982596551162</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.246596355327978</v>
@@ -20585,7 +20387,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.352831237967035</v>
+        <v>1.318161899473863</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.146078742004117</v>
@@ -20674,7 +20476,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.327546934504229</v>
+        <v>1.282297393132913</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.308428679112088</v>
@@ -20763,7 +20565,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.291487670085685</v>
+        <v>1.240972214698584</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.197943893706774</v>
@@ -20852,7 +20654,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.274489739574897</v>
+        <v>1.238212519241006</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.253094288381877</v>
@@ -20941,7 +20743,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.279344458428766</v>
+        <v>1.245484312501564</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.221775378482862</v>
@@ -21030,7 +20832,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.286165170104254</v>
+        <v>1.254209539146595</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.229178354360529</v>
@@ -21119,7 +20921,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.273336157183299</v>
+        <v>1.246020413254732</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.206285122090747</v>
@@ -21208,7 +21010,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.270675187548802</v>
+        <v>1.2496720222866</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.207504676159672</v>
@@ -21297,7 +21099,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.268657216112766</v>
+        <v>1.25112815462461</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.257003665676241</v>
@@ -21386,7 +21188,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.238585716697002</v>
+        <v>1.220776479190695</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.033111843616218</v>
@@ -21475,7 +21277,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.243875271033429</v>
+        <v>1.224564707156208</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.953702572945871</v>
@@ -21564,7 +21366,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.225232955259464</v>
+        <v>1.20985588491067</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.067927423601783</v>
@@ -21653,7 +21455,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.21635049622378</v>
+        <v>1.196529148501412</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.077387844180288</v>
@@ -21742,7 +21544,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.210744583592339</v>
+        <v>1.186039025387496</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.10463246917355</v>
@@ -21831,7 +21633,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.191491457034192</v>
+        <v>1.166262126131682</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.150154485236408</v>
@@ -21920,7 +21722,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.180396665771732</v>
+        <v>1.160713547177489</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.19330283550381</v>
@@ -22009,7 +21811,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.183463984473962</v>
+        <v>1.173674608167659</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.120524390440617</v>
@@ -22098,7 +21900,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.213610739479916</v>
+        <v>1.211033012023201</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.930637459334848</v>
@@ -22384,7 +22186,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.475874638473369</v>
+        <v>1.457323267202498</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.984455297471222</v>
@@ -22473,7 +22275,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.462501129296266</v>
+        <v>1.421297049187012</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.949125095079469</v>
@@ -22562,7 +22364,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.502424962863223</v>
+        <v>1.459290417132696</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.295841748005918</v>
@@ -22651,7 +22453,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.513369248810401</v>
+        <v>1.455077844492467</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.426247429908102</v>
@@ -22740,7 +22542,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.500655688936927</v>
+        <v>1.444862547540546</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.592566894134888</v>
@@ -22829,7 +22631,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.517563827461766</v>
+        <v>1.465017892458404</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.477975762728996</v>
@@ -22918,7 +22720,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.526488210111619</v>
+        <v>1.469823481846612</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.344845816843339</v>
@@ -23007,7 +22809,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.555185831557885</v>
+        <v>1.487438532607623</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.375561646332825</v>
@@ -23096,7 +22898,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.557117139268477</v>
+        <v>1.492225116163637</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.510065241390372</v>
@@ -23185,7 +22987,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.543721472157552</v>
+        <v>1.482677546914594</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.695206234297446</v>
@@ -23274,7 +23076,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.495953557898067</v>
+        <v>1.446652423623603</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.421175088654081</v>
@@ -23363,7 +23165,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.493942156933499</v>
+        <v>1.44373185964998</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.418848909411299</v>
@@ -23452,7 +23254,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.477912759146961</v>
+        <v>1.434630894141049</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.557009355293676</v>
@@ -23541,7 +23343,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.477419346151346</v>
+        <v>1.429904871379504</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.409943105554829</v>
@@ -23630,7 +23432,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.46841134430225</v>
+        <v>1.420000985702583</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.492691726447408</v>
@@ -23719,7 +23521,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.462657896067017</v>
+        <v>1.409266254302256</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.574956286801664</v>
@@ -23808,7 +23610,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.458967656599396</v>
+        <v>1.40936688285281</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.559873687398718</v>
@@ -23897,7 +23699,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.455268716924861</v>
+        <v>1.410230402373555</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.467042256358016</v>
@@ -23986,7 +23788,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.456962555481227</v>
+        <v>1.41272444431739</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.512120949769782</v>
@@ -24075,7 +23877,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.463737835292404</v>
+        <v>1.4181685560336</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.536783843384321</v>
@@ -24164,7 +23966,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.443596184719894</v>
+        <v>1.394527297193108</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.461783209935417</v>
@@ -24253,7 +24055,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.436332564484276</v>
+        <v>1.3859223128911</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.416637392492005</v>
@@ -24342,7 +24144,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.433669621888372</v>
+        <v>1.385337300801895</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.422346313745251</v>
@@ -24431,7 +24233,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.423066546462603</v>
+        <v>1.369839599182013</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.58381287131955</v>
@@ -24520,7 +24322,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.427994005427087</v>
+        <v>1.373906346709906</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.190693427494567</v>
@@ -24609,7 +24411,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.452578316087061</v>
+        <v>1.38775598302155</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.365323048316242</v>
@@ -24698,7 +24500,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.466967802592923</v>
+        <v>1.402277015382458</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.221825612566698</v>
@@ -24787,7 +24589,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.467159271914796</v>
+        <v>1.395918530141785</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.355709717906157</v>
@@ -24876,7 +24678,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.474720974736157</v>
+        <v>1.407504689414617</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.379360242871286</v>
@@ -24965,7 +24767,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.465298299292349</v>
+        <v>1.403124654129926</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.499858582498058</v>
@@ -25054,7 +24856,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.473323884926191</v>
+        <v>1.416845812523046</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.423580126974679</v>
@@ -25143,7 +24945,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.475679939808243</v>
+        <v>1.410029906131732</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.502811860772502</v>
@@ -25232,7 +25034,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.458316811735929</v>
+        <v>1.401579404782932</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.520656985667185</v>
@@ -25321,7 +25123,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.459706533295355</v>
+        <v>1.404339058546207</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.264810328009616</v>
@@ -25410,7 +25212,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.467827505570933</v>
+        <v>1.406518762504103</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.305151109715186</v>
@@ -25499,7 +25301,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.475784557092483</v>
+        <v>1.417771792054565</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.287707560890796</v>
@@ -25588,7 +25390,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.476694865225647</v>
+        <v>1.425457294063516</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.203054285381873</v>
@@ -25677,7 +25479,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.484906375303707</v>
+        <v>1.431897779178918</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.335628363980944</v>
@@ -25766,7 +25568,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.509822159839583</v>
+        <v>1.456643431815927</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.316668255758153</v>
@@ -25855,7 +25657,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.514697200489059</v>
+        <v>1.46016651467747</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.312956160382264</v>
@@ -25944,7 +25746,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.529756093522711</v>
+        <v>1.476174590284508</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.507231367346598</v>
@@ -26033,7 +25835,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.523141821158777</v>
+        <v>1.464670669895473</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.368229850874331</v>
@@ -26122,7 +25924,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.544445308881597</v>
+        <v>1.489513891745731</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.556519137361541</v>
@@ -26211,7 +26013,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.564118305904383</v>
+        <v>1.507881533979083</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.181456941413579</v>
@@ -26300,7 +26102,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.573130582514155</v>
+        <v>1.502905591241171</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.501009332261811</v>
@@ -26389,7 +26191,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.585074512163889</v>
+        <v>1.511252328113766</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.36717303141405</v>
@@ -26478,7 +26280,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.594084946079261</v>
+        <v>1.518887340421046</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.200445120696641</v>
@@ -26567,7 +26369,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.618067990253781</v>
+        <v>1.530520865869242</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.988533401014349</v>
@@ -26656,7 +26458,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.612764778286966</v>
+        <v>1.525243627996829</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.130840817882141</v>
@@ -26745,7 +26547,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.604907508286792</v>
+        <v>1.520482684057377</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.684809254214309</v>
@@ -26834,7 +26636,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.62084773033975</v>
+        <v>1.528156015533059</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.093546637982349</v>
@@ -26923,7 +26725,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.621464148280594</v>
+        <v>1.522641227704601</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.065495192960414</v>
@@ -27012,7 +26814,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.60717323998346</v>
+        <v>1.523163151418553</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.99269316102979</v>
@@ -27101,7 +26903,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.594343580387844</v>
+        <v>1.51433786765717</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.031986110612636</v>
@@ -27190,7 +26992,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.584573147293603</v>
+        <v>1.500378662934497</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.794695756683109</v>
@@ -27279,7 +27081,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.583324252821788</v>
+        <v>1.500893031859644</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.675548052639763</v>
@@ -27368,7 +27170,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.571371179276491</v>
+        <v>1.488486205204227</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.806970291887196</v>
@@ -27457,7 +27259,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.559972875343847</v>
+        <v>1.482100116160106</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.766394468231835</v>
@@ -27546,7 +27348,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.53754702122415</v>
+        <v>1.462365282846853</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.992236202997753</v>
@@ -27635,7 +27437,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.518027371045488</v>
+        <v>1.463938849901733</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.75458304593701</v>
@@ -27724,7 +27526,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.505854012925554</v>
+        <v>1.4557777599066</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.853863893086029</v>
@@ -27813,7 +27615,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.508658958057511</v>
+        <v>1.459546426998232</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.781715592206907</v>
@@ -27902,7 +27704,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.501933418425071</v>
+        <v>1.461766002791691</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.824487995913828</v>
@@ -27991,7 +27793,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.499425704221072</v>
+        <v>1.466317448214706</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.993756639153617</v>
@@ -28080,7 +27882,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.502443904954348</v>
+        <v>1.465660896255925</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.99716497301833</v>
@@ -28169,7 +27971,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.502975671175542</v>
+        <v>1.47779819445139</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.872178730036633</v>
@@ -28258,7 +28060,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.513194460340587</v>
+        <v>1.488898889654768</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.889411999356824</v>
@@ -28347,7 +28149,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.51474752318132</v>
+        <v>1.487039237523778</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.879038423995214</v>
@@ -28436,7 +28238,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.534841962865528</v>
+        <v>1.502966942404057</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.844648860254628</v>
@@ -28525,7 +28327,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.529604127563764</v>
+        <v>1.505086177731964</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.744725819534173</v>
@@ -28614,7 +28416,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.534622853996082</v>
+        <v>1.511262215577158</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.94044866497206</v>
@@ -28703,7 +28505,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.534010432141521</v>
+        <v>1.509485474812952</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.746957865624909</v>
@@ -28792,7 +28594,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.530463044631111</v>
+        <v>1.503295086752833</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.542301492210886</v>
@@ -28881,7 +28683,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.53516224682134</v>
+        <v>1.51323012946208</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.850766574740384</v>
@@ -28970,7 +28772,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.549821557452093</v>
+        <v>1.513548526220603</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.97146864727204</v>
@@ -29059,7 +28861,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.552497416375318</v>
+        <v>1.514890870207002</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.147968161502437</v>
@@ -29345,7 +29147,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.568491799262753</v>
+        <v>1.551980190147332</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.049993651315976</v>
@@ -29434,7 +29236,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.561730791926441</v>
+        <v>1.511186473386099</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.772438582298015</v>
@@ -29523,7 +29325,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.559475698157751</v>
+        <v>1.504939328834052</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.14640161455928</v>
@@ -29612,7 +29414,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.56110058276045</v>
+        <v>1.488464777197495</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.135082484823228</v>
@@ -29701,7 +29503,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.576840428463787</v>
+        <v>1.496090495602705</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.141735950413683</v>
@@ -29790,7 +29592,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.567419746432417</v>
+        <v>1.485018793318062</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.112170872315994</v>
@@ -29879,7 +29681,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.574224241613132</v>
+        <v>1.481380285068315</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.081368347172766</v>
@@ -29968,7 +29770,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.562574798239963</v>
+        <v>1.463307188633821</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.088390997482045</v>
@@ -30057,7 +29859,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.553282229078317</v>
+        <v>1.452685002239035</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.140853232919949</v>
@@ -30146,7 +29948,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.550610376136526</v>
+        <v>1.458649398471208</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.150024526372366</v>
@@ -30235,7 +30037,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.522278431060334</v>
+        <v>1.46102613149297</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.165132800325533</v>
@@ -30324,7 +30126,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.528057911600921</v>
+        <v>1.472786695452999</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.17977877903444</v>
@@ -30413,7 +30215,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.533127134147068</v>
+        <v>1.480314596071866</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.109830283367116</v>
@@ -30502,7 +30304,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.535258954313125</v>
+        <v>1.484192185106307</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.144055318520961</v>
@@ -30591,7 +30393,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.529720285062626</v>
+        <v>1.479759819804866</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.146659808956144</v>
@@ -30680,7 +30482,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.533006308909879</v>
+        <v>1.488129852046211</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.177067559683658</v>
@@ -30769,7 +30571,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.536087558028523</v>
+        <v>1.49002730577197</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.104460257031019</v>
@@ -30858,7 +30660,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.581375506494253</v>
+        <v>1.526793485558585</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.082289347089559</v>
@@ -30947,7 +30749,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.57940638946091</v>
+        <v>1.52809719771777</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.095535909568039</v>
@@ -31036,7 +30838,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.576576703828541</v>
+        <v>1.524886095232323</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.118308487342539</v>
@@ -31125,7 +30927,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.581415616942309</v>
+        <v>1.521374322607469</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.083521218756604</v>
@@ -31214,7 +31016,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.581522132248768</v>
+        <v>1.526812307518459</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.10670400921551</v>
@@ -31303,7 +31105,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.586714650887917</v>
+        <v>1.539915920277402</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.102809956148338</v>
@@ -31392,7 +31194,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.583797433607728</v>
+        <v>1.539481034219617</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.096133623068116</v>
@@ -31481,7 +31283,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.603654179039344</v>
+        <v>1.546418258034482</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.023471258671756</v>
@@ -31570,7 +31372,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.643166464710044</v>
+        <v>1.547256939083814</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.593610138164526</v>
@@ -31659,7 +31461,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.646065466657356</v>
+        <v>1.547303389047959</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.200452096586544</v>
@@ -31748,7 +31550,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.635870583245646</v>
+        <v>1.542914771528861</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.250986430118787</v>
@@ -31837,7 +31639,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.630615520476539</v>
+        <v>1.53942923876027</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.949394287825879</v>
@@ -31926,7 +31728,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.630390512574811</v>
+        <v>1.538316144453065</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.22941548401982</v>
@@ -32015,7 +31817,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.634004419717246</v>
+        <v>1.538032992389835</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.230235490058853</v>
@@ -32104,7 +31906,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.634204846209178</v>
+        <v>1.537181360636272</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.80495465692242</v>
@@ -32193,7 +31995,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.628837462427126</v>
+        <v>1.534398137366334</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.940922390624153</v>
@@ -32282,7 +32084,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.625331349812879</v>
+        <v>1.536400999567137</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.137935880484193</v>
@@ -32371,7 +32173,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.631465115148779</v>
+        <v>1.538786528221925</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.154657630833665</v>
@@ -32460,7 +32262,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.632790298442151</v>
+        <v>1.540971739079447</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.179015758647216</v>
@@ -32549,7 +32351,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.626309057857455</v>
+        <v>1.530091250463747</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.096162936146478</v>
@@ -32638,7 +32440,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.639495977613683</v>
+        <v>1.527997952087801</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.786551266855145</v>
@@ -32727,7 +32529,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.654460333899527</v>
+        <v>1.537426511045819</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.374177725443508</v>
@@ -32816,7 +32618,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.651888722743614</v>
+        <v>1.539862860137237</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.201257190489387</v>
@@ -32905,7 +32707,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.65203769538828</v>
+        <v>1.543849668535644</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.153371839369754</v>
@@ -32994,7 +32796,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.63924617783315</v>
+        <v>1.531831787948837</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.141525706609213</v>
@@ -33083,7 +32885,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.642575637990793</v>
+        <v>1.53277189685078</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.405827761593597</v>
@@ -33172,7 +32974,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.65096295799317</v>
+        <v>1.534325635160564</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.170685109650099</v>
@@ -33261,7 +33063,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.65452654194799</v>
+        <v>1.533125837012927</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.152325317565712</v>
@@ -33350,7 +33152,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.653811237857402</v>
+        <v>1.530868122396759</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.084559782206118</v>
@@ -33439,7 +33241,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.660794415427034</v>
+        <v>1.532352453478482</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.60674852263503</v>
@@ -33528,7 +33330,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.652837398168076</v>
+        <v>1.524951133968558</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.391993326347725</v>
@@ -33617,7 +33419,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.653863029328152</v>
+        <v>1.519022573854094</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.13257506677865</v>
@@ -33706,7 +33508,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.64900020893497</v>
+        <v>1.515082934812561</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.671733003420103</v>
@@ -33795,7 +33597,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.651629036720155</v>
+        <v>1.514546405522194</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.355757812946686</v>
@@ -33884,7 +33686,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.647356920168604</v>
+        <v>1.506012563232679</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.589343849310641</v>
@@ -33973,7 +33775,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.638348166154898</v>
+        <v>1.507236599676671</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.273095673566919</v>
@@ -34062,7 +33864,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.637941908774652</v>
+        <v>1.503170502785026</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.13371634715224</v>
@@ -34151,7 +33953,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.63536520090175</v>
+        <v>1.500598328735615</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.654184618511972</v>
@@ -34240,7 +34042,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.63677444790564</v>
+        <v>1.499941990422448</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.551696887881863</v>
@@ -34329,7 +34131,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.648145435944628</v>
+        <v>1.505286875194062</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.650240051313945</v>
@@ -34418,7 +34220,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.635998603361555</v>
+        <v>1.501495473051284</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.954093928951718</v>
@@ -34507,7 +34309,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.620505666665475</v>
+        <v>1.493403033797272</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.46125066512933</v>
@@ -34596,7 +34398,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.584725045057082</v>
+        <v>1.476321221145116</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.585005745218367</v>
@@ -34685,7 +34487,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.572593011132458</v>
+        <v>1.469497534647999</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.672848159151235</v>
@@ -34774,7 +34576,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.566251316127539</v>
+        <v>1.469620342276145</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.71224041951407</v>
@@ -34863,7 +34665,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.508786937562351</v>
+        <v>1.433139239250819</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.00719121386749</v>
@@ -34952,7 +34754,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.503922490798764</v>
+        <v>1.434382114935513</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.026885084716261</v>
@@ -35041,7 +34843,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.502693646272039</v>
+        <v>1.436379344665784</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.027812769643615</v>
@@ -35130,7 +34932,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.504893509153452</v>
+        <v>1.445498535975326</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.020256789655299</v>
@@ -35219,7 +35021,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.500655702124089</v>
+        <v>1.451040256172809</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.00638020133174</v>
@@ -35308,7 +35110,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.474886204507448</v>
+        <v>1.423268048282244</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.032825495519103</v>
@@ -35397,7 +35199,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.472852583415595</v>
+        <v>1.425282746871772</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.090749489603934</v>
@@ -35486,7 +35288,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.478398113052508</v>
+        <v>1.428047746816704</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.0676315102754</v>
@@ -35575,7 +35377,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.473609710278604</v>
+        <v>1.424112321428525</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.058390154532545</v>
@@ -35664,7 +35466,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.470821729380724</v>
+        <v>1.420455748196315</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.051712905790431</v>
@@ -35753,7 +35555,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.440789592013851</v>
+        <v>1.390815118397157</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.088239644664775</v>
@@ -35842,7 +35644,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.443651213701784</v>
+        <v>1.391736406240589</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.04780601690494</v>
@@ -35931,7 +35733,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.449976620935539</v>
+        <v>1.396161095147682</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.041978173960133</v>
@@ -36020,7 +35822,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.429891176080117</v>
+        <v>1.389028089183404</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.109023776972808</v>
@@ -36306,7 +36108,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.536978737824881</v>
+        <v>1.506982552999369</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.255690112222481</v>
@@ -36395,7 +36197,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.514504093854309</v>
+        <v>1.470045112812926</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.722701935862055</v>
@@ -36484,7 +36286,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.528609660098939</v>
+        <v>1.477002524880783</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.665682499558883</v>
@@ -36573,7 +36375,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.519988090565045</v>
+        <v>1.461402586867343</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.814844784618046</v>
@@ -36662,7 +36464,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.517165733437316</v>
+        <v>1.455616832613818</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.711466052266919</v>
@@ -36751,7 +36553,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.509940740432024</v>
+        <v>1.445992514412377</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.79007640376124</v>
@@ -36840,7 +36642,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.513204127237451</v>
+        <v>1.449948415388716</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.501821254761791</v>
@@ -36929,7 +36731,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.518355259494356</v>
+        <v>1.444343312486664</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.945813588268103</v>
@@ -37018,7 +36820,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.519285453648718</v>
+        <v>1.449355093438365</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.658912486769691</v>
@@ -37107,7 +36909,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.544623855392153</v>
+        <v>1.483684366680954</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.429063695396537</v>
@@ -37196,7 +36998,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.572316873846234</v>
+        <v>1.522562024763844</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.360436237417432</v>
@@ -37285,7 +37087,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.580537221831493</v>
+        <v>1.534274253204275</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.466349180343328</v>
@@ -37374,7 +37176,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.595755901091273</v>
+        <v>1.539509178737785</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.304757210967549</v>
@@ -37463,7 +37265,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.581086042331033</v>
+        <v>1.527393065264702</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.459152065793786</v>
@@ -37552,7 +37354,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.572590297205071</v>
+        <v>1.526307762255342</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.431982205201733</v>
@@ -37641,7 +37443,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.578550877798709</v>
+        <v>1.526906896235997</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.420481681144063</v>
@@ -37730,7 +37532,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.580181269999665</v>
+        <v>1.529696521568076</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.428424051600377</v>
@@ -37819,7 +37621,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.593995372418269</v>
+        <v>1.540231017602057</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.483834012229817</v>
@@ -37908,7 +37710,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.596973368135939</v>
+        <v>1.545131849569581</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.455927475731103</v>
@@ -37997,7 +37799,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.591508083003956</v>
+        <v>1.541667201640404</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.404029331951338</v>
@@ -38086,7 +37888,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.579743800414914</v>
+        <v>1.532783821597806</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.441231016686751</v>
@@ -38175,7 +37977,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.584803305424356</v>
+        <v>1.540188804702055</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.486924265066179</v>
@@ -38264,7 +38066,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.586532103524508</v>
+        <v>1.546419880536437</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.429069145013128</v>
@@ -38353,7 +38155,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.593050331676566</v>
+        <v>1.547908966651188</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.415216285904134</v>
@@ -38442,7 +38244,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.600942818178947</v>
+        <v>1.550317084340795</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.374444488080681</v>
@@ -38531,7 +38333,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.566068435516431</v>
+        <v>1.514428308924214</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.975025541110988</v>
@@ -38620,7 +38422,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.565488164978326</v>
+        <v>1.51413631443024</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.798745039596481</v>
@@ -38709,7 +38511,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.565561691370971</v>
+        <v>1.526081734996704</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.102706849523287</v>
@@ -38798,7 +38600,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.578451694877772</v>
+        <v>1.53889510563103</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.199403658667632</v>
@@ -38887,7 +38689,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.574920047109229</v>
+        <v>1.53476229972079</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.022625183447661</v>
@@ -38976,7 +38778,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.560529315677224</v>
+        <v>1.530746631761389</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.295336148060806</v>
@@ -39065,7 +38867,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.556826529767894</v>
+        <v>1.52958328114581</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.257812209019336</v>
@@ -39154,7 +38956,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.553451874815001</v>
+        <v>1.526973275086147</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.254465848952618</v>
@@ -39243,7 +39045,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.554878658302451</v>
+        <v>1.528793205597447</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.327887335423614</v>
@@ -39332,7 +39134,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.580209201482689</v>
+        <v>1.549061014579524</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.326758781325068</v>
@@ -39421,7 +39223,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.595227415728972</v>
+        <v>1.550335606365348</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.149583051099128</v>
@@ -39510,7 +39312,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.577939575906394</v>
+        <v>1.542254685657078</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.114436488829692</v>
@@ -39599,7 +39401,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.576753825130039</v>
+        <v>1.534038601325755</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.56725229319525</v>
@@ -39688,7 +39490,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.579707157003361</v>
+        <v>1.5382149954933</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.956073473141295</v>
@@ -39777,7 +39579,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.567441376139995</v>
+        <v>1.529759319010432</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.182248039012785</v>
@@ -39866,7 +39668,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.579099720098653</v>
+        <v>1.534534050966038</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.075335744697808</v>
@@ -39955,7 +39757,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.591658684180219</v>
+        <v>1.544964597317567</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.719930049545316</v>
@@ -40044,7 +39846,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.586697130647341</v>
+        <v>1.5388326962848</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.903977693480338</v>
@@ -40133,7 +39935,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.576966037580405</v>
+        <v>1.531859180977421</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.897403933117521</v>
@@ -40222,7 +40024,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.578020118278473</v>
+        <v>1.535041500084777</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.129369641372</v>
@@ -40311,7 +40113,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.576909989474346</v>
+        <v>1.529743443057249</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.741988846596927</v>
@@ -40400,7 +40202,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.568810194138818</v>
+        <v>1.516070420793098</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.775767059816161</v>
@@ -40489,7 +40291,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.565751110722016</v>
+        <v>1.516618930788822</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.673992968615252</v>
@@ -40578,7 +40380,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.568436350866413</v>
+        <v>1.512532763226982</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.723228820438985</v>
@@ -40667,7 +40469,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.545826576632265</v>
+        <v>1.487298122441858</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.65357756819897</v>
@@ -40756,7 +40558,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.548694982764953</v>
+        <v>1.493470985045515</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.470402381349804</v>
@@ -40845,7 +40647,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.55953712455326</v>
+        <v>1.499964341823113</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.597072414494306</v>
@@ -40934,7 +40736,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.566925765634004</v>
+        <v>1.518360827794983</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.719255473591344</v>
@@ -41023,7 +40825,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.556933375576677</v>
+        <v>1.507367012800552</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.475828616833702</v>
@@ -41112,7 +40914,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.546970678569608</v>
+        <v>1.504449157539878</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.688507626089557</v>
@@ -41201,7 +41003,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.542137459683905</v>
+        <v>1.500748120787228</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.557115838706513</v>
@@ -41290,7 +41092,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.531803152577153</v>
+        <v>1.489613548155152</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.751199841944118</v>
@@ -41379,7 +41181,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.535213373604167</v>
+        <v>1.494362508842082</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.608965381977538</v>
@@ -41468,7 +41270,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.546416306800779</v>
+        <v>1.50145776829058</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.710411352640322</v>
@@ -41557,7 +41359,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.559760369998889</v>
+        <v>1.509662860706964</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.718681936107243</v>
@@ -41646,7 +41448,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.562282084072697</v>
+        <v>1.519533330328356</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.88473553726149</v>
@@ -41735,7 +41537,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.578797616724149</v>
+        <v>1.541289467076503</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.985107817481324</v>
@@ -41824,7 +41626,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.588618891273426</v>
+        <v>1.555518347647732</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.789933803137014</v>
@@ -41913,7 +41715,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.595157676259171</v>
+        <v>1.570375746304834</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.884170653340833</v>
@@ -42002,7 +41804,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.622994908452579</v>
+        <v>1.605907294484544</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.008198486609098</v>
@@ -42091,7 +41893,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.624030354806157</v>
+        <v>1.614762246036011</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.88977685954881</v>
@@ -42180,7 +41982,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.639573855560069</v>
+        <v>1.629493314506857</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.915791305800702</v>
@@ -42269,7 +42071,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.630712156981455</v>
+        <v>1.627585562648573</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.137971644301743</v>
@@ -42358,7 +42160,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.668085968870428</v>
+        <v>1.661830087252017</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.990755736167763</v>
@@ -42447,7 +42249,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.678932088008575</v>
+        <v>1.673867696864209</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.442561481115165</v>
@@ -42536,7 +42338,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.674178867485807</v>
+        <v>1.673163570373959</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.950595532915361</v>
@@ -42625,7 +42427,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.658118568798224</v>
+        <v>1.657989468412288</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.337977005869883</v>
@@ -42714,7 +42516,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.630389562367094</v>
+        <v>1.631687318954629</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.246269007019944</v>
@@ -42803,7 +42605,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.639427204747773</v>
+        <v>1.64114374449913</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.160060489011374</v>
@@ -42892,7 +42694,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.634508076694523</v>
+        <v>1.635389906280838</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.708347839499285</v>
@@ -42981,7 +42783,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.604210931302096</v>
+        <v>1.625833135415618</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.458643432005072</v>
@@ -43267,7 +43069,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.326632811695086</v>
+        <v>1.315248045229234</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.200398266345071</v>
@@ -43356,7 +43158,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.321754923469777</v>
+        <v>1.29782993937951</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.006997373538102</v>
@@ -43445,7 +43247,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.337720117018346</v>
+        <v>1.311223042565062</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.316155700272379</v>
@@ -43534,7 +43336,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.3471636425797</v>
+        <v>1.313301828819931</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.227113812112685</v>
@@ -43623,7 +43425,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.34752402793447</v>
+        <v>1.313492389876631</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.203263830202637</v>
@@ -43712,7 +43514,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.355000862945656</v>
+        <v>1.319781958540059</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.211523131711709</v>
@@ -43801,7 +43603,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.357413522685365</v>
+        <v>1.319511619713324</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.215580203803659</v>
@@ -43890,7 +43692,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.34970652507158</v>
+        <v>1.306404600208476</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.227980695002283</v>
@@ -43979,7 +43781,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.335706538802633</v>
+        <v>1.296130782805726</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.143141953622398</v>
@@ -44068,7 +43870,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.337229640845776</v>
+        <v>1.300695161653079</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.082449450949193</v>
@@ -44157,7 +43959,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.344216774083257</v>
+        <v>1.319029058331383</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.226589195064673</v>
@@ -44246,7 +44048,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.338878584215206</v>
+        <v>1.316633796114827</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.177419156250633</v>
@@ -44335,7 +44137,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.37000283494316</v>
+        <v>1.340116963724762</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.07184290379734</v>
@@ -44424,7 +44226,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.371570297796661</v>
+        <v>1.331587652992394</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.376416566044361</v>
@@ -44513,7 +44315,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.343183510555201</v>
+        <v>1.312653291891675</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.307099238301918</v>
@@ -44602,7 +44404,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.339214759332563</v>
+        <v>1.31120185739956</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.412858371669591</v>
@@ -44691,7 +44493,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.345956623658864</v>
+        <v>1.317354514465727</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.235984527395908</v>
@@ -44780,7 +44582,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.36973571182062</v>
+        <v>1.338285127132978</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.321668587954613</v>
@@ -44869,7 +44671,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.370397426835113</v>
+        <v>1.340240009182315</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.3590467119185</v>
@@ -44958,7 +44760,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.376546683602997</v>
+        <v>1.340492161837382</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.324083043018959</v>
@@ -45047,7 +44849,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.359177132733648</v>
+        <v>1.325760176656213</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.267126874657036</v>
@@ -45136,7 +44938,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.383546270936366</v>
+        <v>1.345276634219006</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.249226087445763</v>
@@ -45225,7 +45027,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.365682184616444</v>
+        <v>1.335100555895477</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.303255762335383</v>
@@ -45314,7 +45116,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.373205773281973</v>
+        <v>1.337912282925617</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.049814356040371</v>
@@ -45403,7 +45205,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.392521816585911</v>
+        <v>1.353070031779233</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.34760315894657</v>
@@ -45492,7 +45294,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.369635425087465</v>
+        <v>1.323537403151774</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.359737357515037</v>
@@ -45581,7 +45383,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.363762885296147</v>
+        <v>1.319277655525067</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.221071640830844</v>
@@ -45670,7 +45472,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.358561894173481</v>
+        <v>1.318534079511863</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.307483072333683</v>
@@ -45759,7 +45561,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.353865105316918</v>
+        <v>1.317037227105214</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.060695187042552</v>
@@ -45848,7 +45650,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.353373420550861</v>
+        <v>1.31453079482573</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.371563950954938</v>
@@ -45937,7 +45739,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.332233087069503</v>
+        <v>1.303238469711055</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.398014323681863</v>
@@ -46026,7 +45828,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.317235576900753</v>
+        <v>1.286664042137539</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.306633199388969</v>
@@ -46115,7 +45917,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.319753318595104</v>
+        <v>1.290635584926515</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.379809664642614</v>
@@ -46204,7 +46006,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.318805390036395</v>
+        <v>1.291682080924887</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.472313360031807</v>
@@ -46293,7 +46095,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.344349935480641</v>
+        <v>1.309754692003076</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.317057683442644</v>
@@ -46382,7 +46184,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.356385611675471</v>
+        <v>1.319197760278727</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.397836542411536</v>
@@ -46471,7 +46273,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.33323693950801</v>
+        <v>1.300955195245515</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.238783396339608</v>
@@ -46560,7 +46362,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.357224162273801</v>
+        <v>1.318876878228596</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.28552863490835</v>
@@ -46649,7 +46451,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.365486349137639</v>
+        <v>1.330378198034711</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.221510534741019</v>
@@ -46738,7 +46540,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.353635029824442</v>
+        <v>1.323162157236541</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.275914103520407</v>
@@ -46827,7 +46629,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.357359197422734</v>
+        <v>1.323193620339975</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.178389749794383</v>
@@ -46916,7 +46718,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.373432546421723</v>
+        <v>1.33900966279713</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.307781324114992</v>
@@ -47005,7 +46807,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.354611801342834</v>
+        <v>1.31942925911833</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.329281601350953</v>
@@ -47094,7 +46896,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.35290370154518</v>
+        <v>1.317113570841993</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.403573499228122</v>
@@ -47183,7 +46985,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.371740881352261</v>
+        <v>1.332523444091476</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.090751889303263</v>
@@ -47272,7 +47074,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.395560411085858</v>
+        <v>1.35133507041702</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.20252780825101</v>
@@ -47361,7 +47163,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.405128603186199</v>
+        <v>1.356339608593461</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.231280490772523</v>
@@ -47450,7 +47252,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.404119442694607</v>
+        <v>1.356000762249131</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.253214574951501</v>
@@ -47539,7 +47341,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.408731120419286</v>
+        <v>1.359664751094759</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.242974910326443</v>
@@ -47628,7 +47430,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.379594130565747</v>
+        <v>1.337660427370039</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.272926246376788</v>
@@ -47717,7 +47519,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.377910791371355</v>
+        <v>1.340201988127909</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.339052823905564</v>
@@ -47806,7 +47608,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.381985178895357</v>
+        <v>1.342440871378192</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.391247252148541</v>
@@ -47895,7 +47697,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.374683822623904</v>
+        <v>1.341287881022146</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.2848616727961</v>
@@ -47984,7 +47786,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.358091859161189</v>
+        <v>1.325892884245766</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.461467500983848</v>
@@ -48073,7 +47875,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.37865060453537</v>
+        <v>1.339737635376429</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.14242902610837</v>
@@ -48162,7 +47964,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.382710115534141</v>
+        <v>1.344724739062285</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.197144542037483</v>
@@ -48251,7 +48053,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.387725203666085</v>
+        <v>1.341050095873989</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.389906500176343</v>
@@ -48340,7 +48142,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.391429605272514</v>
+        <v>1.351161322892323</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.300844603102114</v>
@@ -48429,7 +48231,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.393440421123196</v>
+        <v>1.354414122204035</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.282558952263907</v>
@@ -48518,7 +48320,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.374160022118411</v>
+        <v>1.342534987968434</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.2681192502092</v>
@@ -48607,7 +48409,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.372325213836451</v>
+        <v>1.33856903619888</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.214215278211015</v>
@@ -48696,7 +48498,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.374051590470241</v>
+        <v>1.344909908728066</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.276791247296849</v>
@@ -48785,7 +48587,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.373955324959111</v>
+        <v>1.346935184891375</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.178346224354487</v>
@@ -48874,7 +48676,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.368785974368463</v>
+        <v>1.344189883960512</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.254877712027862</v>
@@ -48963,7 +48765,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.400695073963653</v>
+        <v>1.377274411211717</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.252710394560969</v>
@@ -49052,7 +48854,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.388759306981138</v>
+        <v>1.363938347706811</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.211304905721586</v>
@@ -49141,7 +48943,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.406685313599082</v>
+        <v>1.383266400080099</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.196718552008099</v>
@@ -49230,7 +49032,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.403658267816248</v>
+        <v>1.379891719023403</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.07677697469961</v>
@@ -49319,7 +49121,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.429745244407306</v>
+        <v>1.402137306493171</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.282848910080447</v>
@@ -49408,7 +49210,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.42772206125746</v>
+        <v>1.408665036655418</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.196939733773307</v>
@@ -49497,7 +49299,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.429129535938262</v>
+        <v>1.409398328039432</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.217581380507321</v>
@@ -49586,7 +49388,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.446861057091681</v>
+        <v>1.423314039193967</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.239823276392658</v>
@@ -49675,7 +49477,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.450596366424639</v>
+        <v>1.427581500437552</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.287010926490626</v>
@@ -49764,7 +49566,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.508546014727485</v>
+        <v>1.474800671376853</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.331467614948235</v>
@@ -49853,7 +49655,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.519705528703022</v>
+        <v>1.482817997511659</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.567749439813046</v>
@@ -49942,7 +49744,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.47671000402544</v>
+        <v>1.46413040461819</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.439779874373848</v>
